--- a/convertleadpackage.xlsx
+++ b/convertleadpackage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I12" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,6 +794,9 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
@@ -808,6 +811,9 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
@@ -822,6 +828,9 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
@@ -836,6 +845,9 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
@@ -847,6 +859,9 @@
       <c r="H6" t="s">
         <v>32</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -870,6 +885,9 @@
       <c r="H7" t="s">
         <v>35</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
@@ -881,6 +899,9 @@
       <c r="H8" t="s">
         <v>37</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
@@ -892,6 +913,9 @@
       <c r="H9" t="s">
         <v>39</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
@@ -906,6 +930,9 @@
       <c r="H10" t="s">
         <v>42</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
@@ -919,6 +946,9 @@
       </c>
       <c r="H11" t="s">
         <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
